--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ueanorwich-my.sharepoint.com/personal/hpd08ucu_uea_ac_uk/Documents/CV/PL_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{37DA4954-3EDB-4176-9DD1-DA3EC23DEFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{69D04732-89FB-481B-B483-A5869020960C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{37DA4954-3EDB-4176-9DD1-DA3EC23DEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01C43A07-385F-411C-BE1D-83FD43AB5724}"/>
   <bookViews>
-    <workbookView xWindow="35820" yWindow="915" windowWidth="19425" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>when</t>
   </si>
@@ -37,24 +37,12 @@
     <t>type</t>
   </si>
   <si>
-    <t>OCR Science Forum</t>
-  </si>
-  <si>
     <t>why</t>
   </si>
   <si>
-    <t>Bio-Summit</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
     <t>Online</t>
   </si>
   <si>
-    <t>UEA CEEC Rebellion</t>
-  </si>
-  <si>
     <t>Grants</t>
   </si>
   <si>
@@ -64,10 +52,13 @@
     <t>Professional Membership</t>
   </si>
   <si>
-    <t xml:space="preserve">Behavioural ecology and sociobiology; BMC biology; Insects; Journal of Evolutionary Biology, Phil. Transactions of the Royal Society; PLoS Genetics; Proceedings of the Royal Society; Molecular Ecology </t>
-  </si>
-  <si>
-    <t>BBSRC Fellowships; GWIS National Fellowships</t>
+    <t>Behavioural ecology and sociobiology; BMC biology; Insects; Journal of Evolutionary Biology, Phil. Transactions of the Royal Society; PLoS Genetics; Proceedings of the Royal Society; Molecular Ecology; Frontiers in BioEngineering</t>
+  </si>
+  <si>
+    <t>MRC fellowships; BBSRC Fellowships; GWIS National Fellowships</t>
+  </si>
+  <si>
+    <t>Fellow of the Genetics Societ; Fellow of the Royal Statistical Society; Vectorbite; National Network of Bioscience Educators; Advance HE</t>
   </si>
 </sst>
 </file>
@@ -911,7 +902,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -947,16 +938,13 @@
         <v>2021</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -964,16 +952,13 @@
         <v>2021</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -981,16 +966,13 @@
         <v>2020</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ueanorwich-my.sharepoint.com/personal/hpd08ucu_uea_ac_uk/Documents/CV/PL_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{37DA4954-3EDB-4176-9DD1-DA3EC23DEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01C43A07-385F-411C-BE1D-83FD43AB5724}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{37DA4954-3EDB-4176-9DD1-DA3EC23DEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10EF6904-1D68-4BA6-AC2A-FCEB196531FF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="2640" windowWidth="21585" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>when</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>Fellow of the Genetics Societ; Fellow of the Royal Statistical Society; Vectorbite; National Network of Bioscience Educators; Advance HE</t>
+  </si>
+  <si>
+    <t>Thessaloniki, Greece</t>
+  </si>
+  <si>
+    <t>Open University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme Validation </t>
+  </si>
+  <si>
+    <t>Panel Member</t>
   </si>
 </sst>
 </file>
@@ -899,21 +911,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="5" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -933,21 +945,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -955,23 +970,37 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
